--- a/df_1/df_1_3.xlsx
+++ b/df_1/df_1_3.xlsx
@@ -653,367 +653,367 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.433 %</t>
+          <t>4,433</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.2667 %</t>
+          <t>6,2667</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.675 %</t>
+          <t>0,675</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.2477 %</t>
+          <t>0,2477</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.3104 %</t>
+          <t>0,3104</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4079 %</t>
+          <t>1,4079</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.3813 %</t>
+          <t>0,3813</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.3781 %</t>
+          <t>0,3781</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.242 %</t>
+          <t>0,242</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.0117 %</t>
+          <t>2,0117</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.2485 %</t>
+          <t>0,2485</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.1458 %</t>
+          <t>0,1458</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.8498 %</t>
+          <t>0,8498</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.3222 %</t>
+          <t>1,3222</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.2177 %</t>
+          <t>0,2177</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.3243 %</t>
+          <t>0,3243</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.2212 %</t>
+          <t>0,2212</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.942 %</t>
+          <t>0,942</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.2877 %</t>
+          <t>0,2877</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.2609 %</t>
+          <t>0,2609</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.2758 %</t>
+          <t>0,2758</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.3894 %</t>
+          <t>1,3894</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.2973 %</t>
+          <t>0,2973</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.4676 %</t>
+          <t>0,4676</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.3428 %</t>
+          <t>0,3428</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.1876 %</t>
+          <t>1,1876</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.6156 %</t>
+          <t>0,6156</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.5779 %</t>
+          <t>0,5779</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.3659 %</t>
+          <t>0,3659</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1.162 %</t>
+          <t>1,162</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.301 %</t>
+          <t>0,301</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.3352 %</t>
+          <t>0,3352</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.9712 %</t>
+          <t>0,9712</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.9318 %</t>
+          <t>0,9318</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.4049 %</t>
+          <t>0,4049</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.5591 %</t>
+          <t>0,5591</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.3692 %</t>
+          <t>0,3692</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.6854 %</t>
+          <t>0,6854</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.2673 %</t>
+          <t>0,2673</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.4081 %</t>
+          <t>0,4081</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.4778 %</t>
+          <t>0,4778</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.6859 %</t>
+          <t>0,6859</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.448 %</t>
+          <t>0,448</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.923 %</t>
+          <t>0,923</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.2514 %</t>
+          <t>0,2514</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.7061 %</t>
+          <t>0,7061</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.5294 %</t>
+          <t>0,5294</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.4139 %</t>
+          <t>0,4139</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.8548 %</t>
+          <t>0,8548</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>1.1037 %</t>
+          <t>1,1037</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.2491 %</t>
+          <t>0,2491</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.1766 %</t>
+          <t>0,1766</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.2564 %</t>
+          <t>0,2564</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.5836 %</t>
+          <t>0,5836</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.2063 %</t>
+          <t>0,2063</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.1784 %</t>
+          <t>0,1784</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.262 %</t>
+          <t>0,262</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.1767 %</t>
+          <t>0,1767</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.2915 %</t>
+          <t>0,2915</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.1838 %</t>
+          <t>0,1838</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.5022 %</t>
+          <t>0,5022</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.453 %</t>
+          <t>0,453</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.3893 %</t>
+          <t>0,3893</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.3143 %</t>
+          <t>0,3143</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.7345 %</t>
+          <t>0,7345</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.7064 %</t>
+          <t>0,7064</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.3418 %</t>
+          <t>0,3418</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.4425 %</t>
+          <t>0,4425</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.2921 %</t>
+          <t>0,2921</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.2331 %</t>
+          <t>0,2331</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.6084 %</t>
+          <t>0,6084</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.3053 %</t>
+          <t>0,3053</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.2702 %</t>
+          <t>0,2702</t>
         </is>
       </c>
     </row>
@@ -1025,217 +1025,217 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.6246 %</t>
+          <t>2,6246</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6771 %</t>
+          <t>0,6771</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.6987 %</t>
+          <t>0,6987</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.1333 %</t>
+          <t>0,1333</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.1544 %</t>
+          <t>0,1544</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3873 %</t>
+          <t>0,3873</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.5796 %</t>
+          <t>0,5796</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2083 %</t>
+          <t>0,2083</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3625 %</t>
+          <t>0,3625</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.4072 %</t>
+          <t>0,4072</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.6599 %</t>
+          <t>0,6599</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.2928 %</t>
+          <t>0,2928</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.3428 %</t>
+          <t>0,3428</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.3004 %</t>
+          <t>0,3004</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.3444 %</t>
+          <t>0,3444</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.3056 %</t>
+          <t>0,3056</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.2511 %</t>
+          <t>0,2511</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.6034 %</t>
+          <t>0,6034</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.6405 %</t>
+          <t>0,6405</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.7997 %</t>
+          <t>0,7997</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.7796 %</t>
+          <t>0,7796</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.6831 %</t>
+          <t>0,6831</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.7873 %</t>
+          <t>0,7873</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.1716 %</t>
+          <t>1,1716</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.5815 %</t>
+          <t>0,5815</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.3308 %</t>
+          <t>0,3308</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.5733 %</t>
+          <t>0,5733</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.5957 %</t>
+          <t>0,5957</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.2629 %</t>
+          <t>0,2629</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.4138 %</t>
+          <t>0,4138</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.4813 %</t>
+          <t>0,4813</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.6689 %</t>
+          <t>0,6689</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.8081 %</t>
+          <t>0,8081</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.2385 %</t>
+          <t>1,2385</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.1396 %</t>
+          <t>0,1396</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.3311 %</t>
+          <t>0,3311</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.4177 %</t>
+          <t>0,4177</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.7544 %</t>
+          <t>0,7544</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.2768 %</t>
+          <t>0,2768</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.1798 %</t>
+          <t>0,1798</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.2115 %</t>
+          <t>0,2115</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.196 %</t>
+          <t>0,196</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.2886 %</t>
+          <t>0,2886</t>
         </is>
       </c>
     </row>
@@ -1247,187 +1247,187 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.3938 %</t>
+          <t>1,3938</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6536 %</t>
+          <t>0,6536</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.4867 %</t>
+          <t>0,4867</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.3976 %</t>
+          <t>0,3976</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.3686 %</t>
+          <t>0,3686</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3004 %</t>
+          <t>0,3004</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.2005 %</t>
+          <t>0,2005</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.1685 %</t>
+          <t>0,1685</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1703 %</t>
+          <t>0,1703</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.2726 %</t>
+          <t>0,2726</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.1711 %</t>
+          <t>0,1711</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.1587 %</t>
+          <t>0,1587</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.116 %</t>
+          <t>0,116</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0515 %</t>
+          <t>0,0515</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0708 %</t>
+          <t>0,0708</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.1975 %</t>
+          <t>0,1975</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.6231 %</t>
+          <t>0,6231</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.0731 %</t>
+          <t>1,0731</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.3213 %</t>
+          <t>1,3213</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.0306 %</t>
+          <t>1,0306</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.5923 %</t>
+          <t>0,5923</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.5335 %</t>
+          <t>0,5335</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.4654 %</t>
+          <t>0,4654</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.3955 %</t>
+          <t>0,3955</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.3492 %</t>
+          <t>0,3492</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.4157 %</t>
+          <t>0,4157</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.492 %</t>
+          <t>0,492</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.3812 %</t>
+          <t>0,3812</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.5387 %</t>
+          <t>0,5387</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1.1524 %</t>
+          <t>1,1524</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.812 %</t>
+          <t>1,812</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2.5405 %</t>
+          <t>2,5405</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2.6605 %</t>
+          <t>2,6605</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.3949 %</t>
+          <t>3,3949</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>3.2162 %</t>
+          <t>3,2162</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2.6094 %</t>
+          <t>2,6094</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2.4859 %</t>
+          <t>2,4859</t>
         </is>
       </c>
     </row>
